--- a/smid_stimuli.xlsx
+++ b/smid_stimuli.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminjargow/Documents/01_ResMas/Internship/Paradigm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EC658F-A528-C344-B52D-16BD69871451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6874EAB5-3B8F-524D-8164-328531FC0F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="100" windowWidth="28240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="136">
-  <si>
-    <t>moral_domain</t>
-  </si>
-  <si>
-    <t>valence</t>
-  </si>
-  <si>
-    <t>arousal</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="135">
   <si>
     <t>smid/Neutral_Immoral - high arousal4.jpg</t>
   </si>
@@ -421,13 +412,19 @@
     <t>smid/Neutral_Moral - high arousal4.jpg</t>
   </si>
   <si>
-    <t>image_name</t>
-  </si>
-  <si>
-    <t>image_id</t>
-  </si>
-  <si>
-    <t>image_number</t>
+    <t>smid_id</t>
+  </si>
+  <si>
+    <t>smid_name</t>
+  </si>
+  <si>
+    <t>smid_moral_domain</t>
+  </si>
+  <si>
+    <t>smid_valence</t>
+  </si>
+  <si>
+    <t>smid_arousal</t>
   </si>
 </sst>
 </file>
@@ -1268,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1282,2424 +1279,2061 @@
     <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" t="s">
         <v>134</v>
       </c>
-      <c r="B1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D73" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E74" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C77" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D77" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D78" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E79" t="s">
-        <v>6</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E80" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C81" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D81" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>6</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E84" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C85" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E85" t="s">
-        <v>6</v>
-      </c>
-      <c r="F85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C86" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E86" t="s">
-        <v>6</v>
-      </c>
-      <c r="F86">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E87" t="s">
-        <v>6</v>
-      </c>
-      <c r="F87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C88" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D88" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>6</v>
-      </c>
-      <c r="F88">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E89" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C90" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D90" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>6</v>
-      </c>
-      <c r="F90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D92" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>6</v>
-      </c>
-      <c r="F92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E93" t="s">
-        <v>6</v>
-      </c>
-      <c r="F93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C94" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D94" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>6</v>
-      </c>
-      <c r="F94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E95" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C96" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E96" t="s">
-        <v>6</v>
-      </c>
-      <c r="F96">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C97" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E97" t="s">
-        <v>6</v>
-      </c>
-      <c r="F97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E99" t="s">
-        <v>6</v>
-      </c>
-      <c r="F99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C100" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D100" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C103" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E103" t="s">
-        <v>6</v>
-      </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C104" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D104" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
-      </c>
-      <c r="F104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C105" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E105" t="s">
-        <v>6</v>
-      </c>
-      <c r="F105">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C106" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E106" t="s">
-        <v>6</v>
-      </c>
-      <c r="F106">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E107" t="s">
-        <v>6</v>
-      </c>
-      <c r="F107">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C108" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E108" t="s">
-        <v>6</v>
-      </c>
-      <c r="F108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E109" t="s">
-        <v>6</v>
-      </c>
-      <c r="F109">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C110" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D110" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>6</v>
-      </c>
-      <c r="F110">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C111" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E111" t="s">
-        <v>6</v>
-      </c>
-      <c r="F111">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C112" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D112" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>6</v>
-      </c>
-      <c r="F112">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C113" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D113" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C114" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E114" t="s">
-        <v>6</v>
-      </c>
-      <c r="F114">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C115" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D115" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>6</v>
-      </c>
-      <c r="F115">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E116" t="s">
-        <v>6</v>
-      </c>
-      <c r="F116">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C117" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E117" t="s">
-        <v>6</v>
-      </c>
-      <c r="F117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C118" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D118" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
-      </c>
-      <c r="F118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C119" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E119" t="s">
-        <v>6</v>
-      </c>
-      <c r="F119">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C120" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E120" t="s">
-        <v>6</v>
-      </c>
-      <c r="F120">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C121" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E121" t="s">
-        <v>6</v>
-      </c>
-      <c r="F121">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/smid_stimuli.xlsx
+++ b/smid_stimuli.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminjargow/Documents/01_ResMas/Internship/Paradigm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminjargow/Downloads/mft_replic_psychopy-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6874EAB5-3B8F-524D-8164-328531FC0F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444C65E3-2D50-974C-AC28-1E592A62267C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="100" windowWidth="28240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="400" windowWidth="28240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smid_stimuli" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="139">
   <si>
     <t>smid/Neutral_Immoral - high arousal4.jpg</t>
   </si>
@@ -425,6 +438,18 @@
   </si>
   <si>
     <t>smid_arousal</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>height_org</t>
+  </si>
+  <si>
+    <t>width_org</t>
   </si>
 </sst>
 </file>
@@ -1265,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1279,7 +1304,7 @@
     <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>130</v>
       </c>
@@ -1295,8 +1320,20 @@
       <c r="E1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1312,8 +1349,22 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <f>H2*1.5</f>
+        <v>799.5</v>
+      </c>
+      <c r="G2">
+        <f>I2*1.5</f>
+        <v>600</v>
+      </c>
+      <c r="H2">
+        <v>533</v>
+      </c>
+      <c r="I2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1329,8 +1380,22 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">H3*1.5</f>
+        <v>895.5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="1">I3*1.5</f>
+        <v>600</v>
+      </c>
+      <c r="H3">
+        <v>597</v>
+      </c>
+      <c r="I3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1346,8 +1411,22 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>898.5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H4">
+        <v>599</v>
+      </c>
+      <c r="I4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1363,8 +1442,22 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>906</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H5">
+        <v>604</v>
+      </c>
+      <c r="I5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1380,8 +1473,22 @@
       <c r="E6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>399</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H6">
+        <v>266</v>
+      </c>
+      <c r="I6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1397,8 +1504,22 @@
       <c r="E7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>799.5</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H7">
+        <v>533</v>
+      </c>
+      <c r="I7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1414,8 +1535,22 @@
       <c r="E8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>901.5</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H8">
+        <v>601</v>
+      </c>
+      <c r="I8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1431,8 +1566,22 @@
       <c r="E9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>903</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H9">
+        <v>602</v>
+      </c>
+      <c r="I9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1448,8 +1597,22 @@
       <c r="E10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1045.5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H10">
+        <v>697</v>
+      </c>
+      <c r="I10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1465,8 +1628,22 @@
       <c r="E11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H11">
+        <v>300</v>
+      </c>
+      <c r="I11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1482,8 +1659,22 @@
       <c r="E12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H12">
+        <v>600</v>
+      </c>
+      <c r="I12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1499,8 +1690,22 @@
       <c r="E13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>427.5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H13">
+        <v>285</v>
+      </c>
+      <c r="I13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1516,8 +1721,22 @@
       <c r="E14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>381</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H14">
+        <v>254</v>
+      </c>
+      <c r="I14">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1533,8 +1752,22 @@
       <c r="E15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>799.5</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H15">
+        <v>533</v>
+      </c>
+      <c r="I15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1550,8 +1783,22 @@
       <c r="E16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>876</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H16">
+        <v>584</v>
+      </c>
+      <c r="I16">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1567,8 +1814,22 @@
       <c r="E17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>895.5</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H17">
+        <v>597</v>
+      </c>
+      <c r="I17">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1584,8 +1845,22 @@
       <c r="E18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>799.5</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H18">
+        <v>533</v>
+      </c>
+      <c r="I18">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1601,8 +1876,22 @@
       <c r="E19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1119</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H19">
+        <v>746</v>
+      </c>
+      <c r="I19">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1618,8 +1907,22 @@
       <c r="E20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>904.5</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H20">
+        <v>603</v>
+      </c>
+      <c r="I20">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1635,8 +1938,22 @@
       <c r="E21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>807</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H21">
+        <v>538</v>
+      </c>
+      <c r="I21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1652,8 +1969,22 @@
       <c r="E22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>799.5</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H22">
+        <v>533</v>
+      </c>
+      <c r="I22">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1669,8 +2000,22 @@
       <c r="E23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>799.5</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H23">
+        <v>533</v>
+      </c>
+      <c r="I23">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1686,8 +2031,22 @@
       <c r="E24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>427.5</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H24">
+        <v>285</v>
+      </c>
+      <c r="I24">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1703,8 +2062,22 @@
       <c r="E25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>399</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H25">
+        <v>266</v>
+      </c>
+      <c r="I25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1720,8 +2093,22 @@
       <c r="E26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>778.5</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H26">
+        <v>519</v>
+      </c>
+      <c r="I26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1737,8 +2124,22 @@
       <c r="E27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>895.5</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H27">
+        <v>597</v>
+      </c>
+      <c r="I27">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1754,8 +2155,22 @@
       <c r="E28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>903</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H28">
+        <v>602</v>
+      </c>
+      <c r="I28">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1771,8 +2186,22 @@
       <c r="E29" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>397.5</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H29">
+        <v>265</v>
+      </c>
+      <c r="I29">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1788,8 +2217,22 @@
       <c r="E30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>922.5</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H30">
+        <v>615</v>
+      </c>
+      <c r="I30">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1805,8 +2248,22 @@
       <c r="E31" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>898.5</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H31">
+        <v>599</v>
+      </c>
+      <c r="I31">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1822,8 +2279,22 @@
       <c r="E32" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>846</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H32">
+        <v>564</v>
+      </c>
+      <c r="I32">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1839,8 +2310,22 @@
       <c r="E33" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H33">
+        <v>600</v>
+      </c>
+      <c r="I33">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1856,8 +2341,22 @@
       <c r="E34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>799.5</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H34">
+        <v>533</v>
+      </c>
+      <c r="I34">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1873,8 +2372,22 @@
       <c r="E35" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>799.5</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H35">
+        <v>533</v>
+      </c>
+      <c r="I35">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1890,8 +2403,22 @@
       <c r="E36" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H36">
+        <v>560</v>
+      </c>
+      <c r="I36">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1907,8 +2434,22 @@
       <c r="E37" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>777</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H37">
+        <v>518</v>
+      </c>
+      <c r="I37">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1924,8 +2465,22 @@
       <c r="E38" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>799.5</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H38">
+        <v>533</v>
+      </c>
+      <c r="I38">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1941,8 +2496,22 @@
       <c r="E39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>799.5</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H39">
+        <v>533</v>
+      </c>
+      <c r="I39">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1958,8 +2527,22 @@
       <c r="E40" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>799.5</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H40">
+        <v>533</v>
+      </c>
+      <c r="I40">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1975,8 +2558,22 @@
       <c r="E41" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>513</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H41">
+        <v>342</v>
+      </c>
+      <c r="I41">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1992,8 +2589,22 @@
       <c r="E42" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>423</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H42">
+        <v>282</v>
+      </c>
+      <c r="I42">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2009,8 +2620,22 @@
       <c r="E43" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H43">
+        <v>600</v>
+      </c>
+      <c r="I43">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2026,8 +2651,22 @@
       <c r="E44" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>402</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H44">
+        <v>268</v>
+      </c>
+      <c r="I44">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2043,8 +2682,22 @@
       <c r="E45" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>712.5</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H45">
+        <v>475</v>
+      </c>
+      <c r="I45">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2060,8 +2713,22 @@
       <c r="E46" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>799.5</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H46">
+        <v>533</v>
+      </c>
+      <c r="I46">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2077,8 +2744,22 @@
       <c r="E47" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>889.5</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H47">
+        <v>593</v>
+      </c>
+      <c r="I47">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2094,8 +2775,22 @@
       <c r="E48" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>838.5</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H48">
+        <v>559</v>
+      </c>
+      <c r="I48">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2111,8 +2806,22 @@
       <c r="E49" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>799.5</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H49">
+        <v>533</v>
+      </c>
+      <c r="I49">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2128,8 +2837,22 @@
       <c r="E50" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>903</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H50">
+        <v>602</v>
+      </c>
+      <c r="I50">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2145,8 +2868,22 @@
       <c r="E51" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>618</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H51">
+        <v>412</v>
+      </c>
+      <c r="I51">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2162,8 +2899,22 @@
       <c r="E52" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>799.5</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H52">
+        <v>533</v>
+      </c>
+      <c r="I52">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2179,8 +2930,22 @@
       <c r="E53" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>898.5</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H53">
+        <v>599</v>
+      </c>
+      <c r="I53">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2196,8 +2961,22 @@
       <c r="E54" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>412.5</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H54">
+        <v>275</v>
+      </c>
+      <c r="I54">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2213,8 +2992,22 @@
       <c r="E55" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>895.5</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H55">
+        <v>597</v>
+      </c>
+      <c r="I55">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2230,8 +3023,22 @@
       <c r="E56" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>1056</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H56">
+        <v>704</v>
+      </c>
+      <c r="I56">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2247,8 +3054,22 @@
       <c r="E57" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>399</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H57">
+        <v>266</v>
+      </c>
+      <c r="I57">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2264,8 +3085,22 @@
       <c r="E58" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>898.5</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H58">
+        <v>599</v>
+      </c>
+      <c r="I58">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2281,8 +3116,22 @@
       <c r="E59" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H59">
+        <v>300</v>
+      </c>
+      <c r="I59">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2298,8 +3147,22 @@
       <c r="E60" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>799.5</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H60">
+        <v>533</v>
+      </c>
+      <c r="I60">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2315,8 +3178,22 @@
       <c r="E61" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>799.5</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H61">
+        <v>533</v>
+      </c>
+      <c r="I61">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2332,8 +3209,22 @@
       <c r="E62" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>903</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H62">
+        <v>602</v>
+      </c>
+      <c r="I62">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2349,8 +3240,22 @@
       <c r="E63" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>880.5</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H63">
+        <v>587</v>
+      </c>
+      <c r="I63">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2366,8 +3271,22 @@
       <c r="E64" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>799.5</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H64">
+        <v>533</v>
+      </c>
+      <c r="I64">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2383,8 +3302,22 @@
       <c r="E65" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>1327.5</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H65">
+        <v>885</v>
+      </c>
+      <c r="I65">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2400,8 +3333,22 @@
       <c r="E66" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H66">
+        <v>300</v>
+      </c>
+      <c r="I66">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2417,8 +3364,22 @@
       <c r="E67" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <f t="shared" ref="F67:F121" si="2">H67*1.5</f>
+        <v>754.5</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G121" si="3">I67*1.5</f>
+        <v>600</v>
+      </c>
+      <c r="H67">
+        <v>503</v>
+      </c>
+      <c r="I67">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2434,8 +3395,22 @@
       <c r="E68" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>799.5</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H68">
+        <v>533</v>
+      </c>
+      <c r="I68">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2451,8 +3426,22 @@
       <c r="E69" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H69">
+        <v>400</v>
+      </c>
+      <c r="I69">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2468,8 +3457,22 @@
       <c r="E70" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>645</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H70">
+        <v>430</v>
+      </c>
+      <c r="I70">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2485,8 +3488,22 @@
       <c r="E71" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H71">
+        <v>224</v>
+      </c>
+      <c r="I71">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2502,8 +3519,22 @@
       <c r="E72" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72">
+        <f t="shared" si="2"/>
+        <v>840</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H72">
+        <v>560</v>
+      </c>
+      <c r="I72">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2519,8 +3550,22 @@
       <c r="E73" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73">
+        <f t="shared" si="2"/>
+        <v>886.5</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H73">
+        <v>591</v>
+      </c>
+      <c r="I73">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2536,8 +3581,22 @@
       <c r="E74" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74">
+        <f t="shared" si="2"/>
+        <v>901.5</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H74">
+        <v>601</v>
+      </c>
+      <c r="I74">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2553,8 +3612,22 @@
       <c r="E75" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75">
+        <f t="shared" si="2"/>
+        <v>903</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H75">
+        <v>602</v>
+      </c>
+      <c r="I75">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2570,8 +3643,22 @@
       <c r="E76" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76">
+        <f t="shared" si="2"/>
+        <v>799.5</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H76">
+        <v>533</v>
+      </c>
+      <c r="I76">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2587,8 +3674,22 @@
       <c r="E77" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77">
+        <f t="shared" si="2"/>
+        <v>799.5</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H77">
+        <v>533</v>
+      </c>
+      <c r="I77">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2604,8 +3705,22 @@
       <c r="E78" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78">
+        <f t="shared" si="2"/>
+        <v>904.5</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H78">
+        <v>603</v>
+      </c>
+      <c r="I78">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2621,8 +3736,22 @@
       <c r="E79" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H79">
+        <v>600</v>
+      </c>
+      <c r="I79">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2638,8 +3767,22 @@
       <c r="E80" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80">
+        <f t="shared" si="2"/>
+        <v>799.5</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H80">
+        <v>533</v>
+      </c>
+      <c r="I80">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2655,8 +3798,22 @@
       <c r="E81" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H81">
+        <v>600</v>
+      </c>
+      <c r="I81">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2672,8 +3829,22 @@
       <c r="E82" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82">
+        <f t="shared" si="2"/>
+        <v>763.5</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H82">
+        <v>509</v>
+      </c>
+      <c r="I82">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2689,8 +3860,22 @@
       <c r="E83" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83">
+        <f t="shared" si="2"/>
+        <v>898.5</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H83">
+        <v>599</v>
+      </c>
+      <c r="I83">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2706,8 +3891,22 @@
       <c r="E84" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84">
+        <f t="shared" si="2"/>
+        <v>799.5</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H84">
+        <v>533</v>
+      </c>
+      <c r="I84">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2723,8 +3922,22 @@
       <c r="E85" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H85">
+        <v>600</v>
+      </c>
+      <c r="I85">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2740,8 +3953,22 @@
       <c r="E86" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86">
+        <f t="shared" si="2"/>
+        <v>886.5</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H86">
+        <v>591</v>
+      </c>
+      <c r="I86">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -2757,8 +3984,22 @@
       <c r="E87" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87">
+        <f t="shared" si="2"/>
+        <v>903</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H87">
+        <v>602</v>
+      </c>
+      <c r="I87">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -2774,8 +4015,22 @@
       <c r="E88" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88">
+        <f t="shared" si="2"/>
+        <v>399</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H88">
+        <v>266</v>
+      </c>
+      <c r="I88">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -2791,8 +4046,22 @@
       <c r="E89" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89">
+        <f t="shared" si="2"/>
+        <v>1065</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H89">
+        <v>710</v>
+      </c>
+      <c r="I89">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2808,8 +4077,22 @@
       <c r="E90" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H90">
+        <v>600</v>
+      </c>
+      <c r="I90">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -2825,8 +4108,22 @@
       <c r="E91" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91">
+        <f t="shared" si="2"/>
+        <v>888</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H91">
+        <v>592</v>
+      </c>
+      <c r="I91">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -2842,8 +4139,22 @@
       <c r="E92" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H92">
+        <v>300</v>
+      </c>
+      <c r="I92">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -2859,8 +4170,22 @@
       <c r="E93" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93">
+        <f t="shared" si="2"/>
+        <v>382.5</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H93">
+        <v>255</v>
+      </c>
+      <c r="I93">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -2876,8 +4201,22 @@
       <c r="E94" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94">
+        <f t="shared" si="2"/>
+        <v>898.5</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H94">
+        <v>599</v>
+      </c>
+      <c r="I94">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -2893,8 +4232,22 @@
       <c r="E95" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95">
+        <f t="shared" si="2"/>
+        <v>799.5</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H95">
+        <v>533</v>
+      </c>
+      <c r="I95">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -2910,8 +4263,22 @@
       <c r="E96" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96">
+        <f t="shared" si="2"/>
+        <v>898.5</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H96">
+        <v>599</v>
+      </c>
+      <c r="I96">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -2927,8 +4294,22 @@
       <c r="E97" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97">
+        <f t="shared" si="2"/>
+        <v>1068</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H97">
+        <v>712</v>
+      </c>
+      <c r="I97">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -2944,8 +4325,22 @@
       <c r="E98" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98">
+        <f t="shared" si="2"/>
+        <v>684</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H98">
+        <v>456</v>
+      </c>
+      <c r="I98">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -2961,8 +4356,22 @@
       <c r="E99" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99">
+        <f t="shared" si="2"/>
+        <v>799.5</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H99">
+        <v>533</v>
+      </c>
+      <c r="I99">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -2978,8 +4387,22 @@
       <c r="E100" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100">
+        <f t="shared" si="2"/>
+        <v>799.5</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H100">
+        <v>533</v>
+      </c>
+      <c r="I100">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -2995,8 +4418,22 @@
       <c r="E101" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H101">
+        <v>600</v>
+      </c>
+      <c r="I101">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -3012,8 +4449,22 @@
       <c r="E102" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102">
+        <f t="shared" si="2"/>
+        <v>1041</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H102">
+        <v>694</v>
+      </c>
+      <c r="I102">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -3029,8 +4480,22 @@
       <c r="E103" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103">
+        <f t="shared" si="2"/>
+        <v>399</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H103">
+        <v>266</v>
+      </c>
+      <c r="I103">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -3046,8 +4511,22 @@
       <c r="E104" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104">
+        <f t="shared" si="2"/>
+        <v>799.5</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H104">
+        <v>533</v>
+      </c>
+      <c r="I104">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -3063,8 +4542,22 @@
       <c r="E105" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105">
+        <f t="shared" si="2"/>
+        <v>1060.5</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H105">
+        <v>707</v>
+      </c>
+      <c r="I105">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -3080,8 +4573,22 @@
       <c r="E106" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106">
+        <f t="shared" si="2"/>
+        <v>984</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H106">
+        <v>656</v>
+      </c>
+      <c r="I106">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
@@ -3097,8 +4604,22 @@
       <c r="E107" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107">
+        <f t="shared" si="2"/>
+        <v>822</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H107">
+        <v>548</v>
+      </c>
+      <c r="I107">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
@@ -3114,8 +4635,22 @@
       <c r="E108" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108">
+        <f t="shared" si="2"/>
+        <v>895.5</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H108">
+        <v>597</v>
+      </c>
+      <c r="I108">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
@@ -3131,8 +4666,22 @@
       <c r="E109" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H109">
+        <v>600</v>
+      </c>
+      <c r="I109">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
@@ -3148,8 +4697,22 @@
       <c r="E110" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H110">
+        <v>500</v>
+      </c>
+      <c r="I110">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
@@ -3165,8 +4728,22 @@
       <c r="E111" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111">
+        <f t="shared" si="2"/>
+        <v>772.5</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H111">
+        <v>515</v>
+      </c>
+      <c r="I111">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
@@ -3182,8 +4759,22 @@
       <c r="E112" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112">
+        <f t="shared" si="2"/>
+        <v>799.5</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H112">
+        <v>533</v>
+      </c>
+      <c r="I112">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
@@ -3199,8 +4790,22 @@
       <c r="E113" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113">
+        <f t="shared" si="2"/>
+        <v>903</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H113">
+        <v>602</v>
+      </c>
+      <c r="I113">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>112</v>
       </c>
@@ -3216,8 +4821,22 @@
       <c r="E114" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114">
+        <f t="shared" si="2"/>
+        <v>853.5</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H114">
+        <v>569</v>
+      </c>
+      <c r="I114">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>113</v>
       </c>
@@ -3233,8 +4852,22 @@
       <c r="E115" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115">
+        <f t="shared" si="2"/>
+        <v>799.5</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H115">
+        <v>533</v>
+      </c>
+      <c r="I115">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>114</v>
       </c>
@@ -3250,8 +4883,22 @@
       <c r="E116" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116">
+        <f t="shared" si="2"/>
+        <v>799.5</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H116">
+        <v>533</v>
+      </c>
+      <c r="I116">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>115</v>
       </c>
@@ -3267,8 +4914,22 @@
       <c r="E117" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H117">
+        <v>600</v>
+      </c>
+      <c r="I117">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>116</v>
       </c>
@@ -3284,8 +4945,22 @@
       <c r="E118" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118">
+        <f t="shared" si="2"/>
+        <v>718.5</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H118">
+        <v>479</v>
+      </c>
+      <c r="I118">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>117</v>
       </c>
@@ -3301,8 +4976,22 @@
       <c r="E119" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119">
+        <f t="shared" si="2"/>
+        <v>871.5</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H119">
+        <v>581</v>
+      </c>
+      <c r="I119">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>118</v>
       </c>
@@ -3318,8 +5007,22 @@
       <c r="E120" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120">
+        <f t="shared" si="2"/>
+        <v>898.5</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H120">
+        <v>599</v>
+      </c>
+      <c r="I120">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>119</v>
       </c>
@@ -3334,6 +5037,20 @@
       </c>
       <c r="E121" t="s">
         <v>3</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="H121">
+        <v>600</v>
+      </c>
+      <c r="I121">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
